--- a/dados/Dados.xlsx
+++ b/dados/Dados.xlsx
@@ -11,24 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Idade Minima</t>
+    <t>Idade</t>
   </si>
   <si>
-    <t>Idade Maxima</t>
+    <t>Taxa</t>
   </si>
   <si>
-    <t>Taxa Minima</t>
-  </si>
-  <si>
-    <t>Taxa Maxima</t>
-  </si>
-  <si>
-    <t>Parcela Minima</t>
-  </si>
-  <si>
-    <t>Parcela Maxima</t>
+    <t>Parcela</t>
   </si>
 </sst>
 </file>
@@ -61,13 +52,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -286,11 +278,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="13.57"/>
-    <col customWidth="1" min="3" max="3" width="12.14"/>
-    <col customWidth="1" min="4" max="4" width="12.43"/>
-    <col customWidth="1" min="5" max="5" width="14.71"/>
-    <col customWidth="1" min="6" max="6" width="15.0"/>
+    <col customWidth="1" min="2" max="2" width="12.14"/>
+    <col customWidth="1" min="3" max="3" width="14.71"/>
+    <col customWidth="1" min="4" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -303,214 +293,115 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>18.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="2">
         <v>2.0</v>
       </c>
-      <c r="D2" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C2" s="3">
         <v>550.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1750.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>19.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>30.0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="2">
         <v>3.0</v>
       </c>
-      <c r="D3" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="C3" s="3">
         <v>780.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2500.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>20.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="2">
         <v>1.0</v>
       </c>
-      <c r="D4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C4" s="3">
         <v>350.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>895.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>40.0</v>
       </c>
-      <c r="B5" s="1">
-        <v>70.0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="2">
         <v>3.5</v>
       </c>
-      <c r="D5" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="3">
         <v>267.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>4558.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>54.0</v>
       </c>
-      <c r="B6" s="1">
-        <v>87.0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="2">
         <v>2.5</v>
       </c>
-      <c r="D6" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="C6" s="3">
         <v>412.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3500.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1">
         <v>65.0</v>
       </c>
-      <c r="B7" s="1">
-        <v>90.0</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="2">
         <v>3.5</v>
       </c>
-      <c r="D7" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="C7" s="3">
         <v>618.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>5569.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1">
         <v>37.0</v>
       </c>
-      <c r="B8" s="1">
-        <v>62.0</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="2">
         <v>1.5</v>
       </c>
-      <c r="D8" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="C8" s="3">
         <v>123.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>884.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1">
         <v>25.0</v>
       </c>
-      <c r="B9" s="1">
-        <v>48.0</v>
-      </c>
-      <c r="C9" s="1">
+      <c r="B9" s="2">
         <v>5.5</v>
       </c>
-      <c r="D9" s="1">
-        <v>8.7</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="3">
         <v>715.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6453.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1">
         <v>22.0</v>
       </c>
-      <c r="B10" s="1">
-        <v>39.0</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="2">
         <v>1.4</v>
       </c>
-      <c r="D10" s="1">
-        <v>5.7</v>
-      </c>
-      <c r="E10" s="2">
+      <c r="C10" s="3">
         <v>238.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>639.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1">
         <v>31.0</v>
       </c>
-      <c r="B11" s="1">
-        <v>51.0</v>
-      </c>
-      <c r="C11" s="1">
+      <c r="B11" s="2">
         <v>2.2</v>
       </c>
-      <c r="D11" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="C11" s="3">
         <v>324.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>997.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/dados/Dados.xlsx
+++ b/dados/Dados.xlsx
@@ -52,12 +52,18 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -295,112 +301,112 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B2" s="3">
         <v>2.0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>550.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B3" s="3">
         <v>3.0</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>780.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B4" s="3">
         <v>1.0</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>350.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1">
-        <v>40.0</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="B5" s="3">
         <v>3.5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>267.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1">
-        <v>54.0</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="A6" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="B6" s="3">
         <v>2.5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>412.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1">
-        <v>65.0</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="A7" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>618.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1">
-        <v>37.0</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="A8" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B8" s="3">
         <v>1.5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>123.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="A9" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B9" s="3">
         <v>5.5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>715.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="A10" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B10" s="3">
         <v>1.4</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>238.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1">
-        <v>31.0</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="A11" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="B11" s="3">
         <v>2.2</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>324.0</v>
       </c>
     </row>

--- a/dados/Dados.xlsx
+++ b/dados/Dados.xlsx
@@ -11,7 +11,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>CPF</t>
+  </si>
   <si>
     <t>Idade</t>
   </si>
@@ -21,12 +24,30 @@
   <si>
     <t>Parcela</t>
   </si>
+  <si>
+    <t>45870303851</t>
+  </si>
+  <si>
+    <t>24973337864</t>
+  </si>
+  <si>
+    <t>09411320997</t>
+  </si>
+  <si>
+    <t>25780158930</t>
+  </si>
+  <si>
+    <t>46870364820</t>
+  </si>
+  <si>
+    <t>15780384269</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -36,6 +57,10 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,18 +77,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right"/>
     </xf>
@@ -283,10 +305,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.29"/>
-    <col customWidth="1" min="2" max="2" width="12.14"/>
-    <col customWidth="1" min="3" max="3" width="14.71"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="1" width="14.43"/>
+    <col customWidth="1" min="2" max="2" width="13.29"/>
+    <col customWidth="1" min="3" max="3" width="12.14"/>
+    <col customWidth="1" min="4" max="4" width="14.71"/>
+    <col customWidth="1" min="5" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -299,114 +322,147 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
         <v>17.0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C2" s="3">
         <v>2.0</v>
       </c>
-      <c r="C2" s="4">
+      <c r="D2" s="4">
         <v>550.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
         <v>16.0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="C3" s="3">
         <v>3.0</v>
       </c>
-      <c r="C3" s="4">
+      <c r="D3" s="4">
         <v>780.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
         <v>21.0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>1.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="D4" s="4">
         <v>350.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
         <v>41.0</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>3.5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="D5" s="4">
         <v>267.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
         <v>55.0</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>2.5</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D6" s="4">
         <v>412.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>66.0</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>3.5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="D7" s="4">
         <v>618.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
         <v>38.0</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D8" s="4">
         <v>123.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
         <v>26.0</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>5.5</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="4">
         <v>715.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
         <v>23.0</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>1.4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="D10" s="4">
         <v>238.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1">
         <v>29.0</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>2.2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="D11" s="4">
         <v>324.0</v>
       </c>
     </row>
